--- a/Data/EC/NIT-9008019425.xlsx
+++ b/Data/EC/NIT-9008019425.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50812343-8E72-4744-ACFB-D2B7B5B9DDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F97BFD54-5777-4559-BD66-E9EE435F2339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A5B0E8E2-80E5-40E9-A62B-D877B4DD3569}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D21B3636-A3EA-4B08-A75B-B88C0014779D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,37 +65,37 @@
     <t>CC</t>
   </si>
   <si>
+    <t>8643805</t>
+  </si>
+  <si>
+    <t>URBIS AMAYA ACONCHA</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>1042427825</t>
   </si>
   <si>
     <t>LUIS FERNANDO VANEGAS BASANTA</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>8643805</t>
-  </si>
-  <si>
-    <t>URBIS AMAYA ACONCHA</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04E66EA-9F70-7329-C60F-F6CA04FE50F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5EE29EB-1C3A-6892-FA24-89350F9A9161}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A702276A-D31F-47BD-B889-23F364F542F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1174CE79-59D5-4777-90A5-19CE7BD18ADD}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1038,10 +1038,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40344</v>
+        <v>59322</v>
       </c>
       <c r="G16" s="18">
-        <v>1008600</v>
+        <v>1711200</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1052,13 +1052,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>68448</v>
@@ -1075,13 +1075,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>68448</v>
@@ -1107,10 +1107,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>40344</v>
+        <v>68448</v>
       </c>
       <c r="G19" s="18">
-        <v>1008600</v>
+        <v>1711200</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1130,10 +1130,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>40344</v>
+        <v>68448</v>
       </c>
       <c r="G20" s="18">
-        <v>1008600</v>
+        <v>1711200</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1144,13 +1144,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>68448</v>
@@ -1167,13 +1167,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>68448</v>
@@ -1190,16 +1190,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>40344</v>
+        <v>34965</v>
       </c>
       <c r="G23" s="18">
         <v>1008600</v>
@@ -1213,13 +1213,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
         <v>40344</v>
@@ -1236,19 +1236,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F25" s="18">
-        <v>68448</v>
+        <v>40344</v>
       </c>
       <c r="G25" s="18">
-        <v>1711200</v>
+        <v>1008600</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1259,19 +1259,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
-        <v>68448</v>
+        <v>40344</v>
       </c>
       <c r="G26" s="18">
-        <v>1711200</v>
+        <v>1008600</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1282,13 +1282,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>40344</v>
@@ -1305,16 +1305,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F28" s="18">
-        <v>34965</v>
+        <v>40344</v>
       </c>
       <c r="G28" s="18">
         <v>1008600</v>
@@ -1328,19 +1328,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F29" s="24">
-        <v>59322</v>
+        <v>40344</v>
       </c>
       <c r="G29" s="24">
-        <v>1711200</v>
+        <v>1008600</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>

--- a/Data/EC/NIT-9008019425.xlsx
+++ b/Data/EC/NIT-9008019425.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F97BFD54-5777-4559-BD66-E9EE435F2339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02F4A7EB-96A8-4A7B-8C1F-270CA1EFB0AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D21B3636-A3EA-4B08-A75B-B88C0014779D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{88F8B36A-9BFD-4783-9176-8BFAF0040F65}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,31 +71,31 @@
     <t>URBIS AMAYA ACONCHA</t>
   </si>
   <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>1042427825</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO VANEGAS BASANTA</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>1042427825</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO VANEGAS BASANTA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -194,7 +194,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -207,9 +209,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -409,23 +409,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,10 +453,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -509,7 +509,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5EE29EB-1C3A-6892-FA24-89350F9A9161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A7A441-2E52-3286-42C6-DBA21498347C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -860,7 +860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1174CE79-59D5-4777-90A5-19CE7BD18ADD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306CEA00-B1F6-45DF-BE12-B84A075EDAAA}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1038,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>59322</v>
+        <v>68448</v>
       </c>
       <c r="G16" s="18">
         <v>1711200</v>
@@ -1052,19 +1052,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>68448</v>
+        <v>40344</v>
       </c>
       <c r="G17" s="18">
-        <v>1711200</v>
+        <v>1008600</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1081,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>68448</v>
@@ -1098,19 +1098,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>68448</v>
+        <v>40344</v>
       </c>
       <c r="G19" s="18">
-        <v>1711200</v>
+        <v>1008600</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1144,19 +1144,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
-        <v>68448</v>
+        <v>40344</v>
       </c>
       <c r="G21" s="18">
-        <v>1711200</v>
+        <v>1008600</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1173,7 +1173,7 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
         <v>68448</v>
@@ -1190,16 +1190,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>34965</v>
+        <v>40344</v>
       </c>
       <c r="G23" s="18">
         <v>1008600</v>
@@ -1213,19 +1213,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>40344</v>
+        <v>68448</v>
       </c>
       <c r="G24" s="18">
-        <v>1008600</v>
+        <v>1711200</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1236,13 +1236,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>40344</v>
@@ -1259,19 +1259,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F26" s="18">
-        <v>40344</v>
+        <v>68448</v>
       </c>
       <c r="G26" s="18">
-        <v>1008600</v>
+        <v>1711200</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1282,13 +1282,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>40344</v>
@@ -1305,19 +1305,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F28" s="18">
-        <v>40344</v>
+        <v>59322</v>
       </c>
       <c r="G28" s="18">
-        <v>1008600</v>
+        <v>1711200</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1328,16 +1328,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="22" t="s">
-        <v>17</v>
-      </c>
       <c r="F29" s="24">
-        <v>40344</v>
+        <v>34965</v>
       </c>
       <c r="G29" s="24">
         <v>1008600</v>
